--- a/biology/Histoire de la zoologie et de la botanique/Maureen_Ann_Donnelly/Maureen_Ann_Donnelly.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maureen_Ann_Donnelly/Maureen_Ann_Donnelly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maureen Ann Donnelly est une herpétologiste américaine née le 10 août 1954 à Los Angeles en Californie aux États-Unis. Elle est diplômée de l'université de Miami en 1987 après des études sur Oophaga pumilio. C'est une spécialiste de l'herpétofaune néotropicale
 </t>
@@ -511,10 +523,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Myers CW, Donnelly MA (1996). A New Herpétofaune de Cerro Yavi , Venezuela: Premiers résultats du Robert G. Goelet American- Terramar Expedition aux Tepuis du Nord-Ouest". American Museum Novitates (3172): 1-56.
-Donelly MA (1994). "Mesure et suivi la diversité biologique : Méthodes standard pour Amphibiens " Dans : . Heyer WR (1994)[1].</t>
+Donelly MA (1994). "Mesure et suivi la diversité biologique : Méthodes standard pour Amphibiens " Dans : . Heyer WR (1994).</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adercosaurus vixadnexus Myers &amp; Donnelly, 2001
